--- a/teaching/CS6780/project/Training_Data.xlsx
+++ b/teaching/CS6780/project/Training_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimonamanjunath/Desktop/Project Python/Bacteria_Data/Training_Jennifer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimonamanjunath/Desktop/Project Python/Bacteria_Data/Latest_Jennifer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC992D3-3E48-284E-916D-BF035D21F447}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030571E-443C-9846-B7F6-7726566786C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{4296F579-B88B-C748-BA9E-CFB92CFA9B24}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="28800" windowHeight="16440" xr2:uid="{4296F579-B88B-C748-BA9E-CFB92CFA9B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t>carb.lag.delta</t>
   </si>
@@ -240,18 +240,6 @@
     <t>PIL-52_3dayLBCR-4</t>
   </si>
   <si>
-    <t>PIL-55_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-55_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-55_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-55_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>PIL-69_3dayLBCR-1</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t>PIL-78_3dayLBCR-3</t>
   </si>
   <si>
-    <t>PIL-78_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>PIL-84_3dayLBCR-1</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>PIL-86_3dayLBCR-3</t>
   </si>
   <si>
-    <t>PIL-86_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>PIL-90_3dayLBCR-1</t>
   </si>
   <si>
@@ -381,9 +363,6 @@
     <t>PIL-122_3dayLBCR-3</t>
   </si>
   <si>
-    <t>PIL-122_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>PIL-124_3dayLBCR-1</t>
   </si>
   <si>
@@ -393,9 +372,6 @@
     <t>PIL-124_3dayLBCR-3</t>
   </si>
   <si>
-    <t>PIL-124_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>PIL-125_3dayLBCR-1</t>
   </si>
   <si>
@@ -465,9 +441,6 @@
     <t>PIL-132_3dayLBCR-3</t>
   </si>
   <si>
-    <t>PIL-132_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>PIL-133_3dayLBCR-1</t>
   </si>
   <si>
@@ -585,9 +558,6 @@
     <t>PIL-210_3dayLBCR-3</t>
   </si>
   <si>
-    <t>PIL-210_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>PIL-226_3dayLBCR-1</t>
   </si>
   <si>
@@ -732,18 +702,6 @@
     <t>PIL-317_3dayLBCR-4</t>
   </si>
   <si>
-    <t>PIL-327_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-327_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-327_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-327_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>PIL-329_3dayLBCR-1</t>
   </si>
   <si>
@@ -834,313 +792,376 @@
     <t>PIL-344_3dayLBCR-4</t>
   </si>
   <si>
-    <t>PIL-346_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-346_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-346_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-346_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-347_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-347_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-347_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-348_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-348_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-348_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-348_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-349_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-349_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-349_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-349_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-350_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-350_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-350_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-350_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-352_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-352_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-352_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-352_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-353_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-353_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-353_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-353_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-354_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-354_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-354_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-354_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-356_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-356_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-356_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-356_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-357_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-357_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-357_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-357_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-358_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-358_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-358_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-358_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-359_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-359_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-360_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-360_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-360_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-360_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-361_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-361_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-361_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-361_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-362_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-362_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-362_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-362_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-363_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-363_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-363_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-363_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-364_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-364_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-364_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-364_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-365_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-365_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-365_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-365_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-366_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-366_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-366_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-366_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-367_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-367_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-367_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-367_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-368_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-368_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-368_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-368_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-369_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-369_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-369_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-369_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-370_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-370_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-370_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-370_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-371_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-371_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-371_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-371_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-372_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-372_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-372_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-372_3dayLBCR-4</t>
-  </si>
-  <si>
-    <t>PIL-373_3dayLBCR-1</t>
-  </si>
-  <si>
-    <t>PIL-373_3dayLBCR-2</t>
-  </si>
-  <si>
-    <t>PIL-373_3dayLBCR-3</t>
-  </si>
-  <si>
-    <t>PIL-373_3dayLBCR-4</t>
-  </si>
-  <si>
     <t>toby.lag.delta</t>
   </si>
   <si>
     <t>Image_name</t>
+  </si>
+  <si>
+    <t>PIL-13_3dayLBCR-4</t>
+  </si>
+  <si>
+    <t>PIL-15_3dayLBCR-1</t>
+  </si>
+  <si>
+    <t>PIL-15_3dayLBCR-2</t>
+  </si>
+  <si>
+    <t>PIL-15_3dayLBCR-3</t>
+  </si>
+  <si>
+    <t>PIL-15_3dayLBCR-4</t>
+  </si>
+  <si>
+    <t>PIL-55a_3dayLBCR-1</t>
+  </si>
+  <si>
+    <t>PIL-55a_3dayLBCR-2</t>
+  </si>
+  <si>
+    <t>PIL-55a_3dayLBCR-3</t>
+  </si>
+  <si>
+    <t>PIL-55a_3dayLBCR-4</t>
+  </si>
+  <si>
+    <t>PIL49_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL49_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL49_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL49_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL116_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL116_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL116_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL116_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL327_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL327_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL327_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL327_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL346_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL346_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL346_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL346_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL347_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL347_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL347_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL348_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL348_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL348_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL348_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL349_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL349_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL349_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL349_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL350_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL350_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL350_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL350_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL352_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL352_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL352_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL352_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL353_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL353_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL353_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL353_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL354_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL354_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL354_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL354_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL356_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL356_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL356_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL356_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL357_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL357_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL357_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL357_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL358_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL358_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL358_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL358_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL359_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL359_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL360_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL360_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL360_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL360_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL361_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL361_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL361_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL361_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL362_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL362_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL362_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL362_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL363_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL363_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL363_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL363_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL364_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL364_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL364_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL364_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL365_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL365_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL365_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL365_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL366_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL366_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL366_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL366_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL367_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL367_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL367_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL367_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL368_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL368_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL368_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL368_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL369_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL369_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL369_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL369_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL370_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL370_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL370_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL370_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL371_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL371_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL371_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL371_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL372_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL372_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL372_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL372_LBCR-3day-4</t>
+  </si>
+  <si>
+    <t>PIL373_LBCR-3day-1</t>
+  </si>
+  <si>
+    <t>PIL373_LBCR-3day-2</t>
+  </si>
+  <si>
+    <t>PIL373_LBCR-3day-3</t>
+  </si>
+  <si>
+    <t>PIL373_LBCR-3day-4</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1197,6 +1218,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1511,11 +1534,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364B1335-3974-ED48-A4CB-DD14EDEB1080}">
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1526,13 +1547,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1789,19 +1810,19 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4</v>
+      <c r="A25" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>-1</v>
@@ -1812,7 +1833,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>-1</v>
@@ -1823,7 +1844,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>-1</v>
@@ -1834,21 +1855,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -1856,10 +1877,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -1867,10 +1888,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -1878,835 +1899,835 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="B33" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>36</v>
+      <c r="A37" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B37" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>37</v>
+      <c r="A38" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B38" s="1">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>38</v>
+      <c r="A39" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B39" s="1">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>39</v>
+      <c r="A40" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B40" s="1">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>40</v>
+      <c r="A41" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="C42" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="C43" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="C44" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1">
-        <v>30</v>
+        <v>-2</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B67" s="1">
-        <v>30</v>
+        <v>-2</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="B69" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="B71" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="B72" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C74" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1">
-        <v>-2</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="B81" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B82" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="B83" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="B84" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B85" s="1">
-        <v>30</v>
+        <v>-2</v>
       </c>
       <c r="C85" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B86" s="1">
-        <v>30</v>
+        <v>-2</v>
       </c>
       <c r="C86" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B87" s="1">
-        <v>30</v>
+        <v>-2</v>
       </c>
       <c r="C87" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="C88" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B89" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C89" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B90" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C90" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C91" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B92" s="1">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="C92" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C93" s="1">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B95" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B97" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B98" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B99" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B100" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B101" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C101" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C102" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B103" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C103" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B104" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C104" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C105" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C106" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B107" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C107" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B108" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C108" s="1">
         <v>15</v>
@@ -2714,10 +2735,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B109" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C109" s="1">
         <v>15</v>
@@ -2725,10 +2746,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B110" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C110" s="1">
         <v>15</v>
@@ -2736,109 +2757,109 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B111" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C111" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B115" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C115" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B116" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C116" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B117" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C117" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B118" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C118" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>118</v>
+        <v>270</v>
       </c>
       <c r="B119" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C119" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="B120" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C120" s="1">
         <v>19</v>
@@ -2846,10 +2867,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="B121" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C121" s="1">
         <v>19</v>
@@ -2857,10 +2878,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="B122" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C122" s="1">
         <v>19</v>
@@ -2868,241 +2889,241 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B123" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B127" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C127" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B128" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C128" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B129" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C129" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B130" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C130" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B131" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C131" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B132" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C132" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
       </c>
       <c r="C134" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
       </c>
       <c r="C135" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B136" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C136" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B137" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C137" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B138" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B139" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B140" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C140" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B141" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C141" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B142" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C142" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B143" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C143" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B144" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C144" s="1">
         <v>23</v>
@@ -3110,87 +3131,87 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B145" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C145" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B146" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C146" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B147" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C147" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B148" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C148" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B149" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C149" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B150" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C150" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B151" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C151" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B152" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C152" s="1">
         <v>9</v>
@@ -3198,395 +3219,395 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B153" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C153" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B154" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C154" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B155" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B156" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C156" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B157" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C157" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B158" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C158" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B159" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C159" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B160" s="1">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C160" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B161" s="1">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C161" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B162" s="1">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C162" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B163" s="1">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C163" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B164" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C164" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B165" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C165" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B166" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C166" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B167" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C167" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B168" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C168" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B169" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C169" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B170" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C170" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B171" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C171" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B172" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C172" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B173" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C173" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B174" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C174" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B175" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C175" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B178" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
       </c>
       <c r="C180" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
       </c>
       <c r="C181" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
       </c>
       <c r="C182" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
       </c>
       <c r="C183" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B184" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C184" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B185" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C185" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B186" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C186" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B187" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C187" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="1">
         <v>18</v>
@@ -3594,10 +3615,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B189" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="1">
         <v>18</v>
@@ -3605,10 +3626,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="1">
         <v>18</v>
@@ -3616,10 +3637,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="1">
         <v>18</v>
@@ -3627,40 +3648,40 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B192" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C192" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B193" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C193" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B194" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C194" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B195" s="1">
         <v>1</v>
@@ -3671,87 +3692,87 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B196" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B197" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C197" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B198" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C198" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B199" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B200" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C200" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B201" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C201" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B202" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C202" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B203" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" s="1">
         <v>20</v>
@@ -3759,186 +3780,186 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B204" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B205" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C205" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B206" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B207" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C207" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B208" s="1">
         <v>3</v>
       </c>
       <c r="C208" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B209" s="1">
         <v>3</v>
       </c>
       <c r="C209" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B210" s="1">
         <v>3</v>
       </c>
       <c r="C210" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B211" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C211" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B212" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B214" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B215" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C215" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B216" s="1">
+        <v>3</v>
+      </c>
+      <c r="C216" s="1">
         <v>5</v>
-      </c>
-      <c r="C216" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B217" s="1">
+        <v>3</v>
+      </c>
+      <c r="C217" s="1">
         <v>5</v>
-      </c>
-      <c r="C217" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B218" s="1">
+        <v>3</v>
+      </c>
+      <c r="C218" s="1">
         <v>5</v>
-      </c>
-      <c r="C218" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B219" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C219" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B220" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C220" s="1">
         <v>2</v>
@@ -3946,10 +3967,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B221" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C221" s="1">
         <v>2</v>
@@ -3957,10 +3978,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B222" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C222" s="1">
         <v>2</v>
@@ -3968,296 +3989,296 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B223" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C223" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B224" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C224" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B225" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C225" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B226" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C226" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B227" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C227" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B228" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C228" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B229" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C229" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B230" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C230" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B232" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C232" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B233" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C233" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B234" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C234" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B235" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C235" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-      <c r="C236">
-        <v>5</v>
+        <v>218</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-      <c r="C237">
-        <v>5</v>
+        <v>219</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1</v>
+      </c>
+      <c r="C237" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-      <c r="C238">
-        <v>5</v>
+        <v>220</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-      <c r="C239">
-        <v>5</v>
+        <v>221</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B240" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C240" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B241" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C241" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B242" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C242" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B243" s="1">
-        <v>0</v>
-      </c>
-      <c r="C243" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B244" s="1">
-        <v>0</v>
-      </c>
-      <c r="C244" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B245" s="1">
-        <v>0</v>
-      </c>
-      <c r="C245" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B246" s="1">
-        <v>1</v>
-      </c>
-      <c r="C246" s="1">
-        <v>20</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B243" s="8">
+        <v>0</v>
+      </c>
+      <c r="C243" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B244" s="8">
+        <v>0</v>
+      </c>
+      <c r="C244" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B245" s="8">
+        <v>0</v>
+      </c>
+      <c r="C245" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B246" s="8">
+        <v>0</v>
+      </c>
+      <c r="C246" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B248" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" s="1">
         <v>20</v>
@@ -4265,98 +4286,98 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B250" s="1">
         <v>0</v>
       </c>
       <c r="C250" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B251" s="1">
         <v>0</v>
       </c>
       <c r="C251" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B252" s="1">
         <v>0</v>
       </c>
       <c r="C252" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B253" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B256" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B257" s="1">
         <v>0</v>
       </c>
       <c r="C257" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" s="1">
         <v>16</v>
@@ -4364,10 +4385,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B259" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" s="1">
         <v>16</v>
@@ -4375,10 +4396,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B260" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" s="1">
         <v>16</v>
@@ -4386,1000 +4407,1000 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B261" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B263" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B264" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B265" s="1">
         <v>1</v>
       </c>
       <c r="C265" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B266" s="1">
         <v>1</v>
       </c>
       <c r="C266" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B267" s="1">
         <v>1</v>
       </c>
       <c r="C267" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B268" s="1">
         <v>1</v>
       </c>
       <c r="C268" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B269" s="1">
         <v>1</v>
       </c>
       <c r="C269" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-      <c r="C270">
-        <v>18</v>
+        <v>248</v>
+      </c>
+      <c r="B270" s="1">
+        <v>1</v>
+      </c>
+      <c r="C270" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-      <c r="C271">
-        <v>18</v>
+        <v>249</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272">
-        <v>18</v>
+        <v>250</v>
+      </c>
+      <c r="B272" s="1">
+        <v>1</v>
+      </c>
+      <c r="C272" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-      <c r="C273">
-        <v>18</v>
+        <v>251</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-      <c r="C274">
-        <v>15</v>
+        <v>252</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-      <c r="C275">
-        <v>15</v>
+        <v>253</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-      <c r="C276">
+        <v>254</v>
+      </c>
+      <c r="B276" s="1">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" s="8">
+        <v>0</v>
+      </c>
+      <c r="C277" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-      <c r="C277">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-      <c r="C278">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-      <c r="C280">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B281">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288">
         <v>5</v>
       </c>
-      <c r="C281">
+      <c r="C288">
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B282">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289">
         <v>5</v>
       </c>
-      <c r="C282">
+      <c r="C289">
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B283">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290">
         <v>5</v>
       </c>
-      <c r="C283">
+      <c r="C290">
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B284">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291">
         <v>5</v>
       </c>
-      <c r="C284">
+      <c r="C291">
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="C285">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-      <c r="C286">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-      <c r="C287">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-      <c r="C288">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B289">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296">
         <v>-1</v>
       </c>
-      <c r="C289">
+      <c r="C296">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B290">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297">
         <v>-1</v>
       </c>
-      <c r="C290">
+      <c r="C297">
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B291">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298">
         <v>-1</v>
       </c>
-      <c r="C291">
+      <c r="C298">
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B292">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299">
         <v>-1</v>
       </c>
-      <c r="C292">
+      <c r="C299">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B293">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300">
         <v>-9</v>
       </c>
-      <c r="C293">
+      <c r="C300">
         <v>-1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B294">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301">
         <v>-9</v>
       </c>
-      <c r="C294">
+      <c r="C301">
         <v>-1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B295">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302">
         <v>-9</v>
       </c>
-      <c r="C295">
+      <c r="C302">
         <v>-1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B296">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303">
         <v>-9</v>
       </c>
-      <c r="C296">
+      <c r="C303">
         <v>-1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B297">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304">
         <v>-5</v>
       </c>
-      <c r="C297">
+      <c r="C304">
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B298">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305">
         <v>-5</v>
       </c>
-      <c r="C298">
+      <c r="C305">
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B299">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306">
         <v>-5</v>
       </c>
-      <c r="C299">
+      <c r="C306">
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B300">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307">
         <v>-5</v>
       </c>
-      <c r="C300">
+      <c r="C307">
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-      <c r="C301">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B302">
-        <v>0</v>
-      </c>
-      <c r="C302">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-      <c r="C303">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-      <c r="C304">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B305">
-        <v>1</v>
-      </c>
-      <c r="C305">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B306">
-        <v>1</v>
-      </c>
-      <c r="C306">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B307">
-        <v>1</v>
-      </c>
-      <c r="C307">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-      <c r="C308">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B309">
-        <v>27</v>
-      </c>
-      <c r="C309">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B310">
-        <v>27</v>
-      </c>
-      <c r="C310">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B311">
-        <v>27</v>
-      </c>
-      <c r="C311">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B312">
-        <v>27</v>
-      </c>
-      <c r="C312">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B313">
-        <v>-5</v>
-      </c>
-      <c r="C313">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B314">
-        <v>-5</v>
-      </c>
-      <c r="C314">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B315">
-        <v>27</v>
-      </c>
-      <c r="C315">
-        <v>0</v>
-      </c>
-    </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="6" t="s">
-        <v>315</v>
+      <c r="A316" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="B316">
         <v>27</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="6" t="s">
-        <v>316</v>
+      <c r="A317" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="B317">
         <v>27</v>
       </c>
       <c r="C317">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="6" t="s">
-        <v>317</v>
+      <c r="A318" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="B318">
         <v>27</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="6" t="s">
-        <v>318</v>
+      <c r="A319" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="B319">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="C319">
-        <v>22</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="6" t="s">
-        <v>319</v>
+      <c r="A320" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="B320">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="C320">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="6" t="s">
-        <v>320</v>
+      <c r="A321" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="B321">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="C321">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B322">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="C322">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B323">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C323">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B324">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C324">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B325">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C325">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B326">
+        <v>-1</v>
+      </c>
+      <c r="C326">
         <v>22</v>
-      </c>
-      <c r="C326">
-        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B327">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="C327">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B328">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="C328">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B329">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="C329">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B330">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C330">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B331">
-        <v>-30</v>
+        <v>22</v>
       </c>
       <c r="C331">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B332">
-        <v>-30</v>
+        <v>22</v>
       </c>
       <c r="C332">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B333">
-        <v>-30</v>
+        <v>22</v>
       </c>
       <c r="C333">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B334">
-        <v>-30</v>
+        <v>21</v>
       </c>
       <c r="C334">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B335">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="C335">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B336">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="C336">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B337">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="C337">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B338">
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="C338">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B339">
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="C339">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B340">
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="C340">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B341">
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="C341">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B342">
         <v>-3</v>
       </c>
       <c r="C342">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B343">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B344">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B345">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B346">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C347">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C348">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C349">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="C350">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B351">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -5387,10 +5408,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B352">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -5398,10 +5419,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B353">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -5409,188 +5430,265 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B354">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B355">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C355">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B356">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C356">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B357">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C357">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B358">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="C358">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B359">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="C359">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B360">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="C360">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B361">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="C361">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B362">
-        <v>34</v>
+        <v>-5</v>
       </c>
       <c r="C362">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B363">
-        <v>-16</v>
+        <v>-5</v>
       </c>
       <c r="C363">
-        <v>-17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B364">
-        <v>-16</v>
+        <v>-5</v>
       </c>
       <c r="C364">
-        <v>-17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B365">
-        <v>-16</v>
+        <v>-5</v>
       </c>
       <c r="C365">
-        <v>-17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B366">
-        <v>-16</v>
+        <v>34</v>
       </c>
       <c r="C366">
-        <v>-17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B367">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C367">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B368">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C368">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B369">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C369">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B370">
+        <v>-16</v>
+      </c>
+      <c r="C370">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B371">
+        <v>-16</v>
+      </c>
+      <c r="C371">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B372">
+        <v>-16</v>
+      </c>
+      <c r="C372">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B373">
+        <v>-16</v>
+      </c>
+      <c r="C373">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374">
         <v>24</v>
       </c>
-      <c r="C370">
+      <c r="C374">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375">
+        <v>24</v>
+      </c>
+      <c r="C375">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376">
+        <v>24</v>
+      </c>
+      <c r="C376">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377">
+        <v>24</v>
+      </c>
+      <c r="C377">
         <v>25</v>
       </c>
     </row>
